--- a/psot/example/example-ELISA-input.xlsx
+++ b/psot/example/example-ELISA-input.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laserson/repos/robots/psot/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5244F5-132A-6B4B-A5BA-167F390DF602}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6580" yWindow="460" windowWidth="22220" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
   <si>
     <t>A</t>
   </si>
@@ -59,12 +60,6 @@
     <t>A10</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -98,12 +93,6 @@
     <t>B10</t>
   </si>
   <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -137,12 +126,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -176,12 +159,6 @@
     <t>D10</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -215,12 +192,6 @@
     <t>E10</t>
   </si>
   <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -254,12 +225,6 @@
     <t>F10</t>
   </si>
   <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -293,12 +258,6 @@
     <t>G10</t>
   </si>
   <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -326,21 +285,6 @@
     <t>H8</t>
   </si>
   <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>sample_id</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
@@ -594,6 +538,9 @@
   </si>
   <si>
     <t>conc_plate_2_ug_ml</t>
+  </si>
+  <si>
+    <t>library_id</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,33 +1315,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1412,7 +1359,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1440,7 +1387,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1458,17 +1405,17 @@
         <v>3.3084319999999998</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="0">F4/100*1000</f>
+        <f t="shared" ref="G4:G57" si="0">F4/100*1000</f>
         <v>33.084319999999998</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="1">G4*10</f>
+        <f t="shared" ref="H4:H57" si="1">G4*10</f>
         <v>330.84319999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1496,7 +1443,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1524,7 +1471,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1552,7 +1499,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1580,7 +1527,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1608,7 +1555,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1636,7 +1583,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1663,2114 +1610,1862 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="A12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D13" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>26.17728</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>261.77279999999996</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2617.7279999999996</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14">
+        <v>1.043202</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>10.43202</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>104.3202</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F15">
-        <v>26.17728</v>
+        <v>0.55275079999999999</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>261.77279999999996</v>
+        <v>5.5275079999999992</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>2617.7279999999996</v>
+        <v>55.275079999999988</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F16">
-        <v>1.043202</v>
+        <v>14.13367</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>10.43202</v>
+        <v>141.33670000000001</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>104.3202</v>
+        <v>1413.3670000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17">
-        <v>0.55275079999999999</v>
+        <v>51.671300000000002</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>5.5275079999999992</v>
+        <v>516.71299999999997</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>55.275079999999988</v>
+        <v>5167.1299999999992</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18">
-        <v>14.13367</v>
+        <v>10.91014</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>141.33670000000001</v>
+        <v>109.1014</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>1413.3670000000002</v>
+        <v>1091.0139999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19">
-        <v>51.671300000000002</v>
+        <v>27.73291</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>516.71299999999997</v>
+        <v>277.32909999999998</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>5167.1299999999992</v>
+        <v>2773.2909999999997</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F20">
-        <v>10.91014</v>
+        <v>5.2816609999999997</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>109.1014</v>
+        <v>52.816609999999997</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>1091.0139999999999</v>
+        <v>528.16609999999991</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F21">
-        <v>27.73291</v>
+        <v>19.916450000000001</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>277.32909999999998</v>
+        <v>199.16450000000003</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>2773.2909999999997</v>
+        <v>1991.6450000000004</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="A22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F22">
-        <v>5.2816609999999997</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>52.816609999999997</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>528.16609999999991</v>
-      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>19.916450000000001</v>
+        <v>10.736090000000001</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>199.16450000000003</v>
+        <v>107.36090000000002</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>1991.6450000000004</v>
+        <v>1073.6090000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
+      <c r="A24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.1098075</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.0980749999999999</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>10.980749999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
+      <c r="A25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.12548860000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.2548859999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>12.548859999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26">
+        <v>17.248139999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>172.48140000000001</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1724.8140000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F27">
-        <v>10.736090000000001</v>
+        <v>30.38766</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>107.36090000000002</v>
+        <v>303.8766</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>1073.6090000000002</v>
+        <v>3038.7660000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="7">
-        <v>3</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="6">
-        <v>0.1098075</v>
+      <c r="F28">
+        <v>22.93957</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>1.0980749999999999</v>
+        <v>229.39570000000001</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>10.980749999999999</v>
+        <v>2293.9569999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="4">
-        <v>0.12548860000000001</v>
+      <c r="F29">
+        <v>22.732130000000002</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>1.2548859999999999</v>
+        <v>227.32130000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>12.548859999999999</v>
+        <v>2273.2130000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F30">
-        <v>17.248139999999999</v>
+        <v>6.653251</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>172.48140000000001</v>
+        <v>66.532510000000002</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>1724.8140000000001</v>
+        <v>665.32510000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F31">
-        <v>30.38766</v>
+        <v>8.7025620000000004</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>303.8766</v>
+        <v>87.025620000000004</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>3038.7660000000001</v>
+        <v>870.25620000000004</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="A32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F32">
-        <v>22.93957</v>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="4">
+        <v>108.43810000000001</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>229.39570000000001</v>
+        <v>1084.3810000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>2293.9569999999999</v>
+        <v>10843.810000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>22.732130000000002</v>
+        <v>74.478970000000004</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>227.32130000000001</v>
+        <v>744.78970000000004</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>2273.2130000000002</v>
+        <v>7447.8970000000008</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>6.653251</v>
+        <v>0.98531219999999997</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>66.532510000000002</v>
+        <v>9.853121999999999</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>665.32510000000002</v>
+        <v>98.53121999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35">
-        <v>8.7025620000000004</v>
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.54456930000000003</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>87.025620000000004</v>
+        <v>5.4456930000000003</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>870.25620000000004</v>
+        <v>54.45693</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>4.8572959999999998</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>48.572959999999995</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>485.72959999999995</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>16.648340000000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>166.48340000000002</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>1664.8340000000003</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="4">
-        <v>108.43810000000001</v>
+      <c r="F38">
+        <v>17.153860000000002</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>1084.3810000000001</v>
+        <v>171.5386</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>10843.810000000001</v>
+        <v>1715.386</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F39">
-        <v>74.478970000000004</v>
+        <v>26.321269999999998</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>744.78970000000004</v>
+        <v>263.21269999999998</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>7447.8970000000008</v>
+        <v>2632.127</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F40">
-        <v>0.98531219999999997</v>
+        <v>2.102811</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>9.853121999999999</v>
+        <v>21.028109999999998</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>98.53121999999999</v>
+        <v>210.28109999999998</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="2">
-        <v>0.54456930000000003</v>
+        <v>0.62028119999999998</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>5.4456930000000003</v>
+        <v>6.2028119999999998</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>54.45693</v>
+        <v>62.028120000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="A42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F42">
-        <v>4.8572959999999998</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>48.572959999999995</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>485.72959999999995</v>
-      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43">
-        <v>16.648340000000001</v>
+        <v>1.2750010000000001</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>166.48340000000002</v>
+        <v>12.750010000000001</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>1664.8340000000003</v>
+        <v>127.50010000000002</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44">
-        <v>17.153860000000002</v>
+        <v>1.2716160000000001</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>171.5386</v>
+        <v>12.71616</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>1715.386</v>
+        <v>127.16160000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="1">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45">
-        <v>26.321269999999998</v>
+      <c r="A45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.51975039999999995</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>263.21269999999998</v>
+        <v>5.1975039999999995</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>2632.127</v>
+        <v>51.975039999999993</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46">
+        <v>27.417090000000002</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>274.17090000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>2741.7090000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>28.434290000000001</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>284.34289999999999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>2843.4290000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <v>10.64019</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>106.40190000000001</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>1064.0190000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="7">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.17307040000000001</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1.7307040000000002</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>17.307040000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
         <v>9</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46">
-        <v>2.102811</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>21.028109999999998</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>210.28109999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="3">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.62028119999999998</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>6.2028119999999998</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>62.028120000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="1">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="1">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50">
+        <v>16.820810000000002</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>168.20810000000003</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>1682.0810000000004</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F51">
-        <v>1.2750010000000001</v>
+        <v>7.2920879999999997</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>12.750010000000001</v>
+        <v>72.920879999999997</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>127.50010000000002</v>
+        <v>729.2088</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D52" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>30.546510000000001</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>305.46510000000001</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>3054.6509999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F52">
-        <v>1.2716160000000001</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>12.71616</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>127.16160000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="3">
-        <v>4</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0.51975039999999995</v>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <v>2.4669059999999998</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>5.1975039999999995</v>
+        <v>24.669059999999998</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>51.975039999999993</v>
+        <v>246.69059999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F54">
-        <v>27.417090000000002</v>
+        <v>4.2839349999999996</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>274.17090000000002</v>
+        <v>42.839349999999996</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>2741.7090000000003</v>
+        <v>428.39349999999996</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="1">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55">
-        <v>28.434290000000001</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>284.34289999999999</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="1"/>
-        <v>2843.4290000000001</v>
-      </c>
+      <c r="A55" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="7">
+        <v>4</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D56" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>10.64019</v>
+        <v>14.44205</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>106.40190000000001</v>
+        <v>144.4205</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>1064.0190000000002</v>
+        <v>1444.2049999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57" s="6">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="7">
-        <v>8</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.17307040000000001</v>
+      <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57">
+        <v>2.7573810000000001</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>1.7307040000000002</v>
+        <v>27.573810000000002</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>17.307040000000001</v>
+        <v>275.73810000000003</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D58" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58">
-        <v>16.820810000000002</v>
+        <v>14.186439999999999</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
-        <v>168.20810000000003</v>
+        <f t="shared" ref="G58:G79" si="2">F58/100*1000</f>
+        <v>141.86439999999999</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
-        <v>1682.0810000000004</v>
+        <f t="shared" ref="H58:H79" si="3">G58*10</f>
+        <v>1418.6439999999998</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59">
+        <v>11.48568</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>114.85680000000001</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>1148.568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60">
+        <v>4.3990280000000004</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>43.990280000000006</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>439.90280000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1">
         <v>10</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59">
-        <v>7.2920879999999997</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>72.920879999999997</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="1"/>
-        <v>729.2088</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="1">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="1">
-        <v>12</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="F61">
+        <v>6.6671769999999997</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>66.671769999999995</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>666.71769999999992</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F62">
-        <v>30.546510000000001</v>
+        <v>17.401900000000001</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
-        <v>305.46510000000001</v>
+        <f t="shared" si="2"/>
+        <v>174.01900000000001</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
-        <v>3054.6509999999998</v>
+        <f t="shared" si="3"/>
+        <v>1740.19</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F63">
-        <v>2.4669059999999998</v>
+        <v>1.832257</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
-        <v>24.669059999999998</v>
+        <f t="shared" si="2"/>
+        <v>18.322569999999999</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
-        <v>246.69059999999999</v>
+        <f t="shared" si="3"/>
+        <v>183.22569999999999</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="A64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="3">
         <v>3</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64">
-        <v>4.2839349999999996</v>
+      <c r="E64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.56526180000000004</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
-        <v>42.839349999999996</v>
+        <f t="shared" si="2"/>
+        <v>5.6526180000000004</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
-        <v>428.39349999999996</v>
+        <f t="shared" si="3"/>
+        <v>56.526180000000004</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="6">
-        <v>1</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="3">
         <v>4</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="6"/>
+      <c r="E65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.67643940000000002</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>6.7643940000000002</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>67.643940000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F66">
-        <v>14.44205</v>
+        <v>9.5617160000000005</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
-        <v>144.4205</v>
+        <f t="shared" si="2"/>
+        <v>95.617160000000013</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
-        <v>1444.2049999999999</v>
+        <f t="shared" si="3"/>
+        <v>956.17160000000013</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F67">
-        <v>2.7573810000000001</v>
+        <v>2.0747939999999998</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
-        <v>27.573810000000002</v>
+        <f t="shared" si="2"/>
+        <v>20.74794</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
-        <v>275.73810000000003</v>
+        <f t="shared" si="3"/>
+        <v>207.4794</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1">
         <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F68">
-        <v>14.186439999999999</v>
+        <v>3.4524219999999999</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G93" si="2">F68/100*1000</f>
-        <v>141.86439999999999</v>
+        <f t="shared" si="2"/>
+        <v>34.52422</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H93" si="3">G68*10</f>
-        <v>1418.6439999999998</v>
+        <f t="shared" si="3"/>
+        <v>345.24220000000003</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D69" s="1">
         <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F69">
-        <v>11.48568</v>
+        <v>13.86468</v>
       </c>
       <c r="G69">
         <f t="shared" si="2"/>
-        <v>114.85680000000001</v>
+        <v>138.64679999999998</v>
       </c>
       <c r="H69">
         <f t="shared" si="3"/>
-        <v>1148.568</v>
+        <v>1386.4679999999998</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D70" s="1">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F70">
-        <v>4.3990280000000004</v>
+        <v>9.7734089999999991</v>
       </c>
       <c r="G70">
         <f t="shared" si="2"/>
-        <v>43.990280000000006</v>
+        <v>97.734089999999995</v>
       </c>
       <c r="H70">
         <f t="shared" si="3"/>
-        <v>439.90280000000007</v>
+        <v>977.34089999999992</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1">
         <v>10</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71">
-        <v>6.6671769999999997</v>
-      </c>
-      <c r="G71">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72">
+        <v>10.698029999999999</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="2"/>
-        <v>66.671769999999995</v>
-      </c>
-      <c r="H71">
+        <v>106.98029999999999</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="3"/>
-        <v>666.71769999999992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="1">
-        <v>11</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>1069.8029999999999</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D73" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="F73">
+        <v>2.0562520000000002</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>20.562519999999999</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>205.62520000000001</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F74">
-        <v>17.401900000000001</v>
+        <v>1.3823259999999999</v>
       </c>
       <c r="G74">
         <f t="shared" si="2"/>
-        <v>174.01900000000001</v>
+        <v>13.823259999999999</v>
       </c>
       <c r="H74">
         <f t="shared" si="3"/>
-        <v>1740.19</v>
+        <v>138.23259999999999</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F75">
-        <v>1.832257</v>
+        <v>3.2227169999999998</v>
       </c>
       <c r="G75">
         <f t="shared" si="2"/>
-        <v>18.322569999999999</v>
+        <v>32.227170000000001</v>
       </c>
       <c r="H75">
         <f t="shared" si="3"/>
-        <v>183.22569999999999</v>
+        <v>322.27170000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="3">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0.56526180000000004</v>
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76">
+        <v>19.318149999999999</v>
       </c>
       <c r="G76">
         <f t="shared" si="2"/>
-        <v>5.6526180000000004</v>
+        <v>193.1815</v>
       </c>
       <c r="H76">
         <f t="shared" si="3"/>
-        <v>56.526180000000004</v>
+        <v>1931.8150000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="3">
-        <v>4</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F77" s="2">
-        <v>0.67643940000000002</v>
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="1">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77">
+        <v>1.6866019999999999</v>
       </c>
       <c r="G77">
         <f t="shared" si="2"/>
-        <v>6.7643940000000002</v>
+        <v>16.866019999999999</v>
       </c>
       <c r="H77">
         <f t="shared" si="3"/>
-        <v>67.643940000000001</v>
+        <v>168.66019999999997</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F78">
-        <v>9.5617160000000005</v>
+        <v>5.882638</v>
       </c>
       <c r="G78">
         <f t="shared" si="2"/>
-        <v>95.617160000000013</v>
+        <v>58.82638</v>
       </c>
       <c r="H78">
         <f t="shared" si="3"/>
-        <v>956.17160000000013</v>
+        <v>588.26379999999995</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="1">
-        <v>6</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79">
-        <v>2.0747939999999998</v>
+      <c r="A79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="3">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.87065979999999998</v>
       </c>
       <c r="G79">
         <f t="shared" si="2"/>
-        <v>20.74794</v>
+        <v>8.7065979999999996</v>
       </c>
       <c r="H79">
         <f t="shared" si="3"/>
-        <v>207.4794</v>
+        <v>87.065979999999996</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="1">
-        <v>7</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F80">
-        <v>3.4524219999999999</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="2"/>
-        <v>34.52422</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="3"/>
-        <v>345.24220000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="1">
-        <v>8</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F81">
-        <v>13.86468</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="2"/>
-        <v>138.64679999999998</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="3"/>
-        <v>1386.4679999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="1">
-        <v>9</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F82">
-        <v>9.7734089999999991</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="2"/>
-        <v>97.734089999999995</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="3"/>
-        <v>977.34089999999992</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="1">
-        <v>10</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="1">
-        <v>11</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="1">
-        <v>12</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86">
-        <v>10.698029999999999</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="2"/>
-        <v>106.98029999999999</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="3"/>
-        <v>1069.8029999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>179</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87">
-        <v>2.0562520000000002</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="2"/>
-        <v>20.562519999999999</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="3"/>
-        <v>205.62520000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="1">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88">
-        <v>1.3823259999999999</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="2"/>
-        <v>13.823259999999999</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="3"/>
-        <v>138.23259999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>181</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="1">
-        <v>4</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89">
-        <v>3.2227169999999998</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="2"/>
-        <v>32.227170000000001</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="3"/>
-        <v>322.27170000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="1">
-        <v>5</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F90">
-        <v>19.318149999999999</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="2"/>
-        <v>193.1815</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="3"/>
-        <v>1931.8150000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="1">
-        <v>6</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91">
-        <v>1.6866019999999999</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="2"/>
-        <v>16.866019999999999</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="3"/>
-        <v>168.66019999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="1">
-        <v>7</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92">
-        <v>5.882638</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="2"/>
-        <v>58.82638</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="3"/>
-        <v>588.26379999999995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="3">
-        <v>8</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F93" s="2">
-        <v>0.87065979999999998</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="2"/>
-        <v>8.7065979999999996</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="3"/>
-        <v>87.065979999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="1">
-        <v>9</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="1">
-        <v>10</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="1">
-        <v>11</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="1">
-        <v>12</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
